--- a/client/public/uploads/data.xlsx
+++ b/client/public/uploads/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My Live projects\Upgrad_Financepeer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03519C85-CE30-4DCA-B667-48049993517B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CA454F-BD2A-4976-AB1B-3FD6D838C140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="600" windowWidth="14385" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19770" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,10 +78,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -394,13 +400,14 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" customWidth="1"/>
+    <col min="4" max="4" width="65.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -417,59 +424,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>105</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>106</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>107</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>108</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
